--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4d-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H2">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I2">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J2">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.720171333333333</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N2">
-        <v>5.160513999999999</v>
+        <v>9.060001</v>
       </c>
       <c r="O2">
-        <v>0.1961456356393658</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P2">
-        <v>0.1961456356393657</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q2">
-        <v>95.63310990838977</v>
+        <v>3.457600394966889</v>
       </c>
       <c r="R2">
-        <v>860.6979891755079</v>
+        <v>31.118403554702</v>
       </c>
       <c r="S2">
-        <v>0.08899561140835976</v>
+        <v>0.007354475030024627</v>
       </c>
       <c r="T2">
-        <v>0.08899561140835975</v>
+        <v>0.007354475030024627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H3">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I3">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J3">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.229166</v>
       </c>
       <c r="O3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q3">
-        <v>226.6272654557169</v>
+        <v>4.667060102059111</v>
       </c>
       <c r="R3">
-        <v>2039.645389101452</v>
+        <v>42.003540918532</v>
       </c>
       <c r="S3">
-        <v>0.2108980045755763</v>
+        <v>0.009927051441277561</v>
       </c>
       <c r="T3">
-        <v>0.2108980045755763</v>
+        <v>0.009927051441277562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H4">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I4">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J4">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.973308</v>
+        <v>3.229698</v>
       </c>
       <c r="N4">
-        <v>8.919924</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O4">
-        <v>0.3390368019222182</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P4">
-        <v>0.3390368019222182</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q4">
-        <v>165.3013773950587</v>
+        <v>3.697683393332</v>
       </c>
       <c r="R4">
-        <v>1487.712396555528</v>
+        <v>33.279150539988</v>
       </c>
       <c r="S4">
-        <v>0.1538284926842756</v>
+        <v>0.007865142607220621</v>
       </c>
       <c r="T4">
-        <v>0.1538284926842756</v>
+        <v>0.007865142607220623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.654659</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H5">
-        <v>4.963977</v>
+        <v>3.434702</v>
       </c>
       <c r="I5">
-        <v>0.01350398275347337</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J5">
-        <v>0.01350398275347337</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.720171333333333</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N5">
-        <v>5.160513999999999</v>
+        <v>0.104303</v>
       </c>
       <c r="O5">
-        <v>0.1961456356393658</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P5">
-        <v>0.1961456356393657</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q5">
-        <v>2.846296978241999</v>
+        <v>0.03980552474511111</v>
       </c>
       <c r="R5">
-        <v>25.61667280417799</v>
+        <v>0.358249722706</v>
       </c>
       <c r="S5">
-        <v>0.002648747280843067</v>
+        <v>8.466818149983192E-05</v>
       </c>
       <c r="T5">
-        <v>0.002648747280843067</v>
+        <v>8.466818149983194E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>4.963977</v>
       </c>
       <c r="I6">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J6">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.076388666666666</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N6">
-        <v>12.229166</v>
+        <v>9.060001</v>
       </c>
       <c r="O6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q6">
-        <v>6.745033194797999</v>
+        <v>4.997070731552999</v>
       </c>
       <c r="R6">
-        <v>60.70529875318199</v>
+        <v>44.973636583977</v>
       </c>
       <c r="S6">
-        <v>0.006276888346679902</v>
+        <v>0.01062899922500309</v>
       </c>
       <c r="T6">
-        <v>0.006276888346679901</v>
+        <v>0.01062899922500309</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>4.963977</v>
       </c>
       <c r="I7">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J7">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.973308</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N7">
-        <v>8.919924</v>
+        <v>12.229166</v>
       </c>
       <c r="O7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q7">
-        <v>4.919810841972</v>
+        <v>6.745033194797999</v>
       </c>
       <c r="R7">
-        <v>44.278297577748</v>
+        <v>60.70529875318199</v>
       </c>
       <c r="S7">
-        <v>0.004578347125950403</v>
+        <v>0.01434699576042366</v>
       </c>
       <c r="T7">
-        <v>0.004578347125950402</v>
+        <v>0.01434699576042366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.222176333333334</v>
+        <v>1.654659</v>
       </c>
       <c r="H8">
-        <v>9.666529000000001</v>
+        <v>4.963977</v>
       </c>
       <c r="I8">
-        <v>0.02629678600484052</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J8">
-        <v>0.02629678600484052</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.720171333333333</v>
+        <v>3.229698</v>
       </c>
       <c r="N8">
-        <v>5.160513999999999</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O8">
-        <v>0.1961456356393658</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P8">
-        <v>0.1961456356393657</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q8">
-        <v>5.54269535954511</v>
+        <v>5.344048862982</v>
       </c>
       <c r="R8">
-        <v>49.884258235906</v>
+        <v>48.096439766838</v>
       </c>
       <c r="S8">
-        <v>0.005157999806191821</v>
+        <v>0.01136703766555678</v>
       </c>
       <c r="T8">
-        <v>0.00515799980619182</v>
+        <v>0.01136703766555678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.222176333333334</v>
+        <v>1.654659</v>
       </c>
       <c r="H9">
-        <v>9.666529000000001</v>
+        <v>4.963977</v>
       </c>
       <c r="I9">
-        <v>0.02629678600484052</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J9">
-        <v>0.02629678600484052</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.076388666666666</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N9">
-        <v>12.229166</v>
+        <v>0.104303</v>
       </c>
       <c r="O9">
-        <v>0.464817562438416</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P9">
-        <v>0.464817562438416</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q9">
-        <v>13.13484308720156</v>
+        <v>0.057528632559</v>
       </c>
       <c r="R9">
-        <v>118.213587784814</v>
+        <v>0.5177576930310001</v>
       </c>
       <c r="S9">
-        <v>0.01222320797073462</v>
+        <v>0.0001223660467769813</v>
       </c>
       <c r="T9">
-        <v>0.01222320797073462</v>
+        <v>0.0001223660467769813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H10">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I10">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J10">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.973308</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N10">
-        <v>8.919924</v>
+        <v>9.060001</v>
       </c>
       <c r="O10">
-        <v>0.3390368019222182</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P10">
-        <v>0.3390368019222182</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q10">
-        <v>9.580522669310668</v>
+        <v>9.638712590542111</v>
       </c>
       <c r="R10">
-        <v>86.22470402379601</v>
+        <v>86.74841331487899</v>
       </c>
       <c r="S10">
-        <v>0.008915578227914075</v>
+        <v>0.02050198489447037</v>
       </c>
       <c r="T10">
-        <v>0.008915578227914073</v>
+        <v>0.02050198489447037</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>62.05924166666666</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H11">
-        <v>186.177725</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I11">
-        <v>0.5064771225734744</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J11">
-        <v>0.5064771225734744</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.720171333333333</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N11">
-        <v>5.160513999999999</v>
+        <v>12.229166</v>
       </c>
       <c r="O11">
-        <v>0.1961456356393658</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P11">
-        <v>0.1961456356393657</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q11">
-        <v>106.7525284834055</v>
+        <v>13.01030941343489</v>
       </c>
       <c r="R11">
-        <v>960.7727563506497</v>
+        <v>117.092784720914</v>
       </c>
       <c r="S11">
-        <v>0.09934327714397111</v>
+        <v>0.02767352637201372</v>
       </c>
       <c r="T11">
-        <v>0.09934327714397109</v>
+        <v>0.02767352637201372</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>62.05924166666666</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H12">
-        <v>186.177725</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I12">
-        <v>0.5064771225734744</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J12">
-        <v>0.5064771225734744</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076388666666666</v>
+        <v>3.229698</v>
       </c>
       <c r="N12">
-        <v>12.229166</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O12">
-        <v>0.464817562438416</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P12">
-        <v>0.464817562438416</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q12">
-        <v>252.9775893919277</v>
+        <v>10.307989185514</v>
       </c>
       <c r="R12">
-        <v>2276.79830452735</v>
+        <v>92.771902669626</v>
       </c>
       <c r="S12">
-        <v>0.2354194615454253</v>
+        <v>0.02192556698714531</v>
       </c>
       <c r="T12">
-        <v>0.2354194615454252</v>
+        <v>0.02192556698714532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.191626333333333</v>
+      </c>
+      <c r="H13">
+        <v>9.574878999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.07033710676294723</v>
+      </c>
+      <c r="J13">
+        <v>0.07033710676294723</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.104303</v>
+      </c>
+      <c r="O13">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P13">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q13">
+        <v>0.1109654004818889</v>
+      </c>
+      <c r="R13">
+        <v>0.998688604337</v>
+      </c>
+      <c r="S13">
+        <v>0.0002360285093178183</v>
+      </c>
+      <c r="T13">
+        <v>0.0002360285093178184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>39.384953</v>
+      </c>
+      <c r="H14">
+        <v>118.154859</v>
+      </c>
+      <c r="I14">
+        <v>0.8679661572792696</v>
+      </c>
+      <c r="J14">
+        <v>0.8679661572792696</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.020000333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.060001</v>
+      </c>
+      <c r="O14">
+        <v>0.291481777372034</v>
+      </c>
+      <c r="P14">
+        <v>0.291481777372034</v>
+      </c>
+      <c r="Q14">
+        <v>118.9425711883177</v>
+      </c>
+      <c r="R14">
+        <v>1070.483140694859</v>
+      </c>
+      <c r="S14">
+        <v>0.2529963182225359</v>
+      </c>
+      <c r="T14">
+        <v>0.2529963182225359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>39.384953</v>
+      </c>
+      <c r="H15">
+        <v>118.154859</v>
+      </c>
+      <c r="I15">
+        <v>0.8679661572792696</v>
+      </c>
+      <c r="J15">
+        <v>0.8679661572792696</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N15">
+        <v>12.229166</v>
+      </c>
+      <c r="O15">
+        <v>0.3934413518781783</v>
+      </c>
+      <c r="P15">
+        <v>0.3934413518781784</v>
+      </c>
+      <c r="Q15">
+        <v>160.5483760463993</v>
+      </c>
+      <c r="R15">
+        <v>1444.935384417594</v>
+      </c>
+      <c r="S15">
+        <v>0.3414937783044634</v>
+      </c>
+      <c r="T15">
+        <v>0.3414937783044634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>62.05924166666666</v>
-      </c>
-      <c r="H13">
-        <v>186.177725</v>
-      </c>
-      <c r="I13">
-        <v>0.5064771225734744</v>
-      </c>
-      <c r="J13">
-        <v>0.5064771225734744</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.973308</v>
-      </c>
-      <c r="N13">
-        <v>8.919924</v>
-      </c>
-      <c r="O13">
-        <v>0.3390368019222182</v>
-      </c>
-      <c r="P13">
-        <v>0.3390368019222182</v>
-      </c>
-      <c r="Q13">
-        <v>184.5212397214333</v>
-      </c>
-      <c r="R13">
-        <v>1660.6911574929</v>
-      </c>
-      <c r="S13">
-        <v>0.1717143838840781</v>
-      </c>
-      <c r="T13">
-        <v>0.1717143838840781</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>39.384953</v>
+      </c>
+      <c r="H16">
+        <v>118.154859</v>
+      </c>
+      <c r="I16">
+        <v>0.8679661572792696</v>
+      </c>
+      <c r="J16">
+        <v>0.8679661572792696</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.229698</v>
+      </c>
+      <c r="N16">
+        <v>9.689094000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.311721195201271</v>
+      </c>
+      <c r="P16">
+        <v>0.3117211952012711</v>
+      </c>
+      <c r="Q16">
+        <v>127.201503934194</v>
+      </c>
+      <c r="R16">
+        <v>1144.813535407746</v>
+      </c>
+      <c r="S16">
+        <v>0.2705634479413483</v>
+      </c>
+      <c r="T16">
+        <v>0.2705634479413483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>39.384953</v>
+      </c>
+      <c r="H17">
+        <v>118.154859</v>
+      </c>
+      <c r="I17">
+        <v>0.8679661572792696</v>
+      </c>
+      <c r="J17">
+        <v>0.8679661572792696</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.104303</v>
+      </c>
+      <c r="O17">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P17">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q17">
+        <v>1.369322917586333</v>
+      </c>
+      <c r="R17">
+        <v>12.323906258277</v>
+      </c>
+      <c r="S17">
+        <v>0.002912612810921894</v>
+      </c>
+      <c r="T17">
+        <v>0.002912612810921894</v>
       </c>
     </row>
   </sheetData>
